--- a/aug_pc_result/2026_Feb_12_11_25_09_d_separation_pval_ensemble_pc_gt_graph_AdaSyn_20_594228/results.xlsx
+++ b/aug_pc_result/2026_Feb_12_11_25_09_d_separation_pval_ensemble_pc_gt_graph_AdaSyn_20_594228/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Feb_12_11_25_09_d_separation_pval_ensemble_pc_gt_graph_AdaSyn_20_594228\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E230EA-7FEC-48E5-98E3-51A8F9672833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFBB1F-6CB3-4583-9B22-B7BD58483389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,6 +671,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1026,7 +1027,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="AD2" sqref="AD2:AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
